--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -349,62 +349,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>site_type</t>
+          <t>Site type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>parameter</t>
+          <t>Parameter</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>source_id</t>
+          <t>Source ID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>pollutant</t>
+          <t>Pollutant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>emis_type</t>
+          <t>Emission type</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>value_rnd</t>
+          <t>Value rounded</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>conc</t>
+          <t>Conc (µg/m3)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>conc_rnd</t>
+          <t>Conc rounded (µg/m3)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>emis_tpy</t>
+          <t>Emissions (tpy)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ure</t>
+          <t>URE 1/(µg/m3)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>rfc</t>
+          <t>RFc (mg/m3)</t>
         </is>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Site type</t>
   </si>
@@ -61,16 +61,16 @@
     <t>CEOT0001</t>
   </si>
   <si>
+    <t>Ethyl benzene</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>All modeled pollutants</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Ethyl benzene</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Toluene</t>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>All pollutants all sources</t>
+  </si>
+  <si>
+    <t>Total by pollutant all sources</t>
+  </si>
+  <si>
+    <t>Max offsite impact</t>
   </si>
   <si>
     <t>Developmental HI</t>
@@ -122,9 +131,6 @@
   </si>
   <si>
     <t>Whole body HI</t>
-  </si>
-  <si>
-    <t>Max offsite impact</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,25 +529,25 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>1.44198297945e-08</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>1e-08</v>
+        <v>2e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.180003007397</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0.008</v>
       </c>
       <c r="J2" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -561,25 +567,25 @@
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>1.44198297945e-08</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>1e-08</v>
+        <v>2e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00576793191781</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -596,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -605,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00489730068493</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="J4" t="n">
         <v>0.45</v>
@@ -634,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -643,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.169337774795</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I5" t="n">
         <v>0.2</v>
@@ -669,25 +675,25 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>1.44198297945e-08</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>1e-08</v>
+        <v>2e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00576793191781</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006</v>
+        <v>0.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -704,28 +710,28 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00489730068493</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="J7" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -742,13 +748,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -757,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.169337774795</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>0.007</v>
       </c>
       <c r="J8" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -777,31 +783,31 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>5.76793191781e-06</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6e-06</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.180003007397</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I9" t="n">
         <v>0.2</v>
       </c>
       <c r="J9" t="n">
-        <v>16.54</v>
+        <v>15.56</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -812,31 +818,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>5.76793191781e-06</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>6e-06</v>
+        <v>2e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00576793191781</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="J10" t="n">
         <v>0.53</v>
@@ -850,57 +856,57 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00489730068493</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005</v>
+        <v>0.2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -909,89 +915,89 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.169337774795</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2</v>
+        <v>0.007</v>
       </c>
       <c r="J12" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>5.76793191781e-06</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6e-06</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00576793191781</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006</v>
+        <v>0.2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00489730068493</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005</v>
+        <v>0.2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1002,34 +1008,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>0.169337774795</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2</v>
+        <v>0.008</v>
       </c>
       <c r="J15" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1040,19 +1046,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1061,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J16" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1078,19 +1084,19 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1099,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1119,37 +1125,37 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J18" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1157,37 +1163,37 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J19" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1195,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1213,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J20" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1233,13 +1239,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1251,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J21" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1271,31 +1277,31 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J22" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1309,31 +1315,31 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J23" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1347,16 +1353,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1365,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J24" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1385,16 +1391,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1403,89 +1409,89 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J26" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1496,13 +1502,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -1517,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J28" t="n">
         <v>0.45</v>
@@ -1529,18 +1535,18 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -1555,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J29" t="n">
         <v>15.56</v>
@@ -1567,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J30" t="n">
         <v>16.54</v>
@@ -1610,57 +1616,57 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>8e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J31" t="n">
         <v>0.53</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1669,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J32" t="n">
         <v>0.45</v>
@@ -1681,24 +1687,24 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1707,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J33" t="n">
         <v>15.56</v>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1727,16 +1733,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1754,10 +1760,10 @@
         <v>0.53</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1765,16 +1771,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1795,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1803,16 +1809,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1833,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1847,10 +1853,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1882,13 +1888,13 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1903,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1920,13 +1926,13 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1941,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1958,13 +1964,13 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1979,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1996,13 +2002,13 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2055,30 +2061,30 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2093,30 +2099,30 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2131,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.54</v>
+        <v>15.56</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2154,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2169,30 +2175,30 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K45" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2207,30 +2213,30 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2245,30 +2251,30 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2283,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2321,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2338,13 +2344,13 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2359,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2373,37 +2379,37 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00169435720808</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.180003007397</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2411,13 +2417,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -2429,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00576793191781</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K52" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2449,37 +2455,37 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>9.794601369860001e-07</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00489730068493</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2487,37 +2493,37 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00169337774795</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.169337774795</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2525,16 +2531,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2543,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00576793191781</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0.53</v>
@@ -2563,28 +2569,28 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>9.794601369860001e-07</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00489730068493</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0.45</v>
@@ -2601,28 +2607,28 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00169337774795</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.169337774795</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>15.56</v>
@@ -2636,10 +2642,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2648,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2663,30 +2669,30 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2701,30 +2707,30 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2739,30 +2745,30 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2777,30 +2783,30 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2815,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2891,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2929,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>16.54</v>
+        <v>15.56</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -2943,16 +2949,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2981,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2990,7 +2996,7 @@
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3019,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3028,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3057,16 +3063,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3081,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3095,16 +3101,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3119,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3133,16 +3139,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3157,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3171,16 +3177,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3195,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3209,16 +3215,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3233,30 +3239,30 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K73" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3271,30 +3277,30 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3309,30 +3315,30 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3347,30 +3353,30 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3385,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3396,19 +3402,19 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3423,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -3434,19 +3440,19 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3461,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -3472,19 +3478,19 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3499,30 +3505,30 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K80" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3537,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3551,16 +3557,16 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3575,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3589,16 +3595,16 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3613,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3627,16 +3633,16 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3651,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3665,16 +3671,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3689,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -3703,16 +3709,16 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3741,16 +3747,16 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3768,10 +3774,10 @@
         <v>0.53</v>
       </c>
       <c r="K87" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3779,16 +3785,16 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3809,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3817,16 +3823,16 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3847,24 +3853,24 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3882,27 +3888,27 @@
         <v>0.53</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3923,24 +3929,24 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3961,24 +3967,24 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -4004,19 +4010,19 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4031,30 +4037,30 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K94" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4069,30 +4075,30 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4107,30 +4113,30 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4145,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4159,16 +4165,16 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4183,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4197,16 +4203,16 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4221,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4235,16 +4241,16 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4259,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>16.54</v>
+        <v>15.56</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4273,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4282,7 +4288,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4297,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K101" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4311,16 +4317,16 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4335,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4349,16 +4355,16 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4373,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4387,16 +4393,16 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4411,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4425,16 +4431,16 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4449,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4460,19 +4466,19 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4487,103 +4493,103 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F107" t="n">
-        <v>3.92778462329e-08</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>4e-08</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.490306095616</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
       </c>
       <c r="F108" t="n">
-        <v>3.92778462329e-08</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>4e-08</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0157111384932</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K108" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E109" t="s">
         <v>18</v>
@@ -4595,33 +4601,33 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0133396458904</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
@@ -4633,48 +4639,48 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.461255311233</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F111" t="n">
-        <v>3.92778462329e-08</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>4e-08</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0157111384932</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>0.53</v>
@@ -4688,19 +4694,19 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4709,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0133396458904</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0.45</v>
@@ -4726,19 +4732,19 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4747,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.461255311233</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>15.56</v>
@@ -4764,31 +4770,31 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F114" t="n">
-        <v>1.57111384932e-05</v>
+        <v>0.00227663546207</v>
       </c>
       <c r="G114" t="n">
-        <v>2e-05</v>
+        <v>0.002</v>
       </c>
       <c r="H114" t="n">
-        <v>0.490306095616</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J114" t="n">
         <v>16.54</v>
@@ -4802,48 +4808,48 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F115" t="n">
-        <v>1.57111384932e-05</v>
+        <v>0.00227531940329</v>
       </c>
       <c r="G115" t="n">
-        <v>2e-05</v>
+        <v>0.002</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0157111384932</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="J115" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K115" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -4852,19 +4858,19 @@
         <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1.31605878082e-06</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0133396458904</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="J116" t="n">
         <v>0.45</v>
@@ -4878,19 +4884,19 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4899,51 +4905,51 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.461255311233</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I117" t="n">
-        <v>0.5</v>
+        <v>0.008</v>
       </c>
       <c r="J117" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>1.57111384932e-05</v>
+        <v>0.00227663546207</v>
       </c>
       <c r="G118" t="n">
-        <v>2e-05</v>
+        <v>0.002</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0157111384932</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="J118" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -4954,34 +4960,34 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.00227531940329</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0133396458904</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="J119" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -4992,34 +4998,34 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1.31605878082e-06</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>0.461255311233</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5</v>
+        <v>0.007</v>
       </c>
       <c r="J120" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5030,19 +5036,19 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
         <v>23</v>
-      </c>
-      <c r="C121" t="s">
-        <v>14</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -5051,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J121" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5068,10 +5074,10 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5080,118 +5086,118 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>0.00227663546207</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J122" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K122" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123" t="s">
         <v>16</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>0.00227531940329</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J123" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
         <v>16</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1.31605878082e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J124" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -5203,51 +5209,51 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J125" t="n">
         <v>0.53</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>0.00227663546207</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.241862358164</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J126" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5258,31 +5264,31 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
         <v>23</v>
-      </c>
-      <c r="C127" t="s">
-        <v>21</v>
       </c>
       <c r="D127" t="s">
         <v>20</v>
       </c>
       <c r="E127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>0.00227531940329</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.227531940329</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J127" t="n">
         <v>15.56</v>
@@ -5296,34 +5302,34 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1.31605878082e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.00658029390411</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="J128" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5334,19 +5340,19 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5355,36 +5361,36 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.00775012393151</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J129" t="n">
         <v>0.53</v>
       </c>
       <c r="K129" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5399,30 +5405,30 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5437,30 +5443,30 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5475,30 +5481,30 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5513,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -5524,19 +5530,19 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5551,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -5562,19 +5568,19 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -5589,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -5600,19 +5606,19 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5627,30 +5633,30 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K136" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5665,30 +5671,30 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5703,30 +5709,30 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5741,30 +5747,30 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5779,30 +5785,30 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5817,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -5828,19 +5834,19 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5866,19 +5872,19 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5896,27 +5902,27 @@
         <v>0.53</v>
       </c>
       <c r="K143" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
         <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5937,24 +5943,24 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5975,24 +5981,24 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -6010,27 +6016,27 @@
         <v>0.53</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
         <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -6051,24 +6057,24 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
         <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -6089,24 +6095,24 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -6132,19 +6138,19 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -6159,30 +6165,30 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K150" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6197,30 +6203,30 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -6235,30 +6241,30 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E153" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -6273,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -6284,19 +6290,19 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -6311,30 +6317,30 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -6349,59 +6355,59 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00461522104151</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.490306095616</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>16.54</v>
+        <v>15.56</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -6419,112 +6425,112 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0157111384932</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K157" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
         <v>18</v>
       </c>
       <c r="F158" t="n">
-        <v>2.66792917808e-06</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>3e-06</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0133396458904</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00461255311233</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0.461255311233</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6533,13 +6539,13 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0157111384932</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -6550,34 +6556,34 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F161" t="n">
-        <v>2.66792917808e-06</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>3e-06</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0133396458904</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K161" t="n">
         <v>0</v>
@@ -6588,57 +6594,57 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00461255311233</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.461255311233</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6653,30 +6659,30 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6691,30 +6697,30 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K164" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6729,30 +6735,30 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6767,30 +6773,30 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6816,19 +6822,19 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6854,19 +6860,19 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
       </c>
       <c r="E169" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6892,10 +6898,10 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
@@ -6904,7 +6910,7 @@
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6919,30 +6925,30 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6957,30 +6963,30 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K171" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6995,30 +7001,30 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -7033,30 +7039,30 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -7071,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -7082,19 +7088,19 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E175" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -7109,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7120,19 +7126,19 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7147,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -7158,19 +7164,19 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7185,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>16.54</v>
+        <v>15.56</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -7196,19 +7202,19 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s">
         <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7234,10 +7240,10 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -7246,7 +7252,7 @@
         <v>19</v>
       </c>
       <c r="E179" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7272,10 +7278,10 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
@@ -7284,7 +7290,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7310,19 +7316,19 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
         <v>17</v>
       </c>
       <c r="E181" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7337,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -7348,19 +7354,19 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C182" t="s">
         <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7375,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -7386,19 +7392,19 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7424,19 +7430,19 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7451,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>16.54</v>
+        <v>0.45</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -7462,19 +7468,19 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7489,30 +7495,30 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K185" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7527,30 +7533,30 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L186" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
         <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7565,30 +7571,30 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7603,30 +7609,30 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7641,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="K189" t="n">
         <v>0</v>
@@ -7652,19 +7658,19 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C190" t="s">
         <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7679,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -7690,19 +7696,19 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7717,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>16.54</v>
+        <v>0.53</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -7728,19 +7734,19 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E192" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7755,30 +7761,30 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K192" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7793,30 +7799,30 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
         <v>36</v>
       </c>
-      <c r="B194" t="s">
-        <v>33</v>
-      </c>
       <c r="C194" t="s">
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7831,30 +7837,30 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>15.56</v>
+        <v>0.53</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s">
         <v>36</v>
       </c>
-      <c r="B195" t="s">
-        <v>33</v>
-      </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E195" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7869,30 +7875,30 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" t="s">
         <v>36</v>
       </c>
-      <c r="B196" t="s">
-        <v>33</v>
-      </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E196" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7907,30 +7913,30 @@
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>0.45</v>
+        <v>15.56</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
         <v>36</v>
       </c>
-      <c r="B197" t="s">
-        <v>33</v>
-      </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7945,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>15.56</v>
+        <v>16.54</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -7956,19 +7962,19 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
         <v>36</v>
       </c>
-      <c r="B198" t="s">
-        <v>34</v>
-      </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7994,19 +8000,19 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
         <v>36</v>
       </c>
-      <c r="B199" t="s">
-        <v>34</v>
-      </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -8024,27 +8030,27 @@
         <v>0.53</v>
       </c>
       <c r="K199" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" t="s">
         <v>36</v>
       </c>
-      <c r="B200" t="s">
-        <v>34</v>
-      </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
       </c>
       <c r="E200" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -8065,24 +8071,24 @@
         <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
         <v>36</v>
       </c>
-      <c r="B201" t="s">
-        <v>34</v>
-      </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
         <v>20</v>
       </c>
       <c r="E201" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -8103,24 +8109,24 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
         <v>36</v>
       </c>
-      <c r="B202" t="s">
-        <v>34</v>
-      </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E202" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -8138,27 +8144,27 @@
         <v>0.53</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" t="s">
         <v>36</v>
       </c>
-      <c r="B203" t="s">
-        <v>34</v>
-      </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
         <v>19</v>
       </c>
       <c r="E203" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -8179,24 +8185,24 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" t="s">
         <v>36</v>
       </c>
-      <c r="B204" t="s">
-        <v>34</v>
-      </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
         <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -8217,24 +8223,24 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205" t="s">
         <v>36</v>
       </c>
-      <c r="B205" t="s">
-        <v>35</v>
-      </c>
       <c r="C205" t="s">
         <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -8260,19 +8266,19 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" t="s">
         <v>36</v>
       </c>
-      <c r="B206" t="s">
-        <v>35</v>
-      </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E206" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -8287,30 +8293,30 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>0.53</v>
+        <v>16.54</v>
       </c>
       <c r="K206" t="n">
-        <v>2.5e-06</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" t="s">
         <v>36</v>
       </c>
-      <c r="B207" t="s">
-        <v>35</v>
-      </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -8325,30 +8331,30 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" t="s">
         <v>36</v>
       </c>
-      <c r="B208" t="s">
-        <v>35</v>
-      </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -8363,30 +8369,30 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>15.56</v>
+        <v>0.45</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" t="s">
         <v>36</v>
       </c>
-      <c r="B209" t="s">
-        <v>35</v>
-      </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -8401,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>0.53</v>
+        <v>15.56</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -8412,19 +8418,19 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E210" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -8439,50 +8445,1190 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>2.5e-06</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" t="s">
+        <v>37</v>
+      </c>
+      <c r="C212" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" t="s">
+        <v>37</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" t="s">
         <v>21</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D214" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" t="s">
+        <v>37</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>37</v>
+      </c>
+      <c r="C216" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" t="s">
         <v>20</v>
       </c>
-      <c r="E211" t="s">
-        <v>16</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
+      <c r="E217" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
         <v>15.56</v>
       </c>
-      <c r="K211" t="n">
-        <v>0</v>
-      </c>
-      <c r="L211" t="n">
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2.5e-06</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220" t="s">
+        <v>37</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" t="s">
+        <v>37</v>
+      </c>
+      <c r="C223" t="s">
+        <v>23</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" t="s">
+        <v>37</v>
+      </c>
+      <c r="C224" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224" t="s">
+        <v>18</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2.5e-06</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" t="s">
+        <v>18</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" t="s">
+        <v>18</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2.5e-06</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238" t="s">
+        <v>38</v>
+      </c>
+      <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" t="s">
+        <v>22</v>
+      </c>
+      <c r="E238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" t="s">
+        <v>24</v>
+      </c>
+      <c r="B239" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" t="s">
+        <v>38</v>
+      </c>
+      <c r="C241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
         <v>0</v>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -529,16 +529,16 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>1.93753098288e-08</v>
+        <v>1.83497108219e-08</v>
       </c>
       <c r="G2" t="n">
         <v>2e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00775012393151</v>
+        <v>0.00733988432877</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J2" t="n">
         <v>0.53</v>
@@ -567,13 +567,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>1.93753098288e-08</v>
+        <v>1.83497108219e-08</v>
       </c>
       <c r="G3" t="n">
         <v>2e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.241862358164</v>
+        <v>0.229059786411</v>
       </c>
       <c r="I3" t="n">
         <v>0.2</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00658029390411</v>
+        <v>0.00623197726027</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J4" t="n">
         <v>0.45</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.227531940329</v>
+        <v>0.215487924822</v>
       </c>
       <c r="I5" t="n">
         <v>0.2</v>
@@ -681,13 +681,13 @@
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93753098288e-08</v>
+        <v>1.83497108219e-08</v>
       </c>
       <c r="G6" t="n">
         <v>2e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.241862358164</v>
+        <v>0.229059786411</v>
       </c>
       <c r="I6" t="n">
         <v>0.2</v>
@@ -719,16 +719,16 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>1.93753098288e-08</v>
+        <v>1.83497108219e-08</v>
       </c>
       <c r="G7" t="n">
         <v>2e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00775012393151</v>
+        <v>0.00733988432877</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J7" t="n">
         <v>0.53</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00658029390411</v>
+        <v>0.00623197726027</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J8" t="n">
         <v>0.45</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.227531940329</v>
+        <v>0.215487924822</v>
       </c>
       <c r="I9" t="n">
         <v>0.2</v>
@@ -833,16 +833,16 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>1.93753098288e-08</v>
+        <v>3.92778462329e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>2e-08</v>
+        <v>4e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00775012393151</v>
+        <v>0.0157111384932</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="J10" t="n">
         <v>0.53</v>
@@ -871,16 +871,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>1.93753098288e-08</v>
+        <v>3.92778462329e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>2e-08</v>
+        <v>4e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.241862358164</v>
+        <v>0.490306095616</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
         <v>16.54</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00658029390411</v>
+        <v>0.0133396458904</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="J12" t="n">
         <v>0.45</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.227531940329</v>
+        <v>0.461255311233</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
         <v>15.56</v>
@@ -985,16 +985,16 @@
         <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>1.93753098288e-08</v>
+        <v>3.92778462329e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>2e-08</v>
+        <v>4e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.241862358164</v>
+        <v>0.490306095616</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="n">
         <v>16.54</v>
@@ -1023,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1.93753098288e-08</v>
+        <v>3.92778462329e-08</v>
       </c>
       <c r="G15" t="n">
-        <v>2e-08</v>
+        <v>4e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00775012393151</v>
+        <v>0.0157111384932</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="J15" t="n">
         <v>0.53</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00658029390411</v>
+        <v>0.0133396458904</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="J16" t="n">
         <v>0.45</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.227531940329</v>
+        <v>0.461255311233</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J17" t="n">
         <v>15.56</v>
@@ -1137,16 +1137,16 @@
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>7.75012393151e-06</v>
+        <v>7.33988432877e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>8e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00775012393151</v>
+        <v>0.00733988432877</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J18" t="n">
         <v>0.53</v>
@@ -1175,13 +1175,13 @@
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>7.75012393151e-06</v>
+        <v>7.33988432877e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>8e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.241862358164</v>
+        <v>0.229059786411</v>
       </c>
       <c r="I19" t="n">
         <v>0.2</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00658029390411</v>
+        <v>0.00623197726027</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J20" t="n">
         <v>0.45</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.227531940329</v>
+        <v>0.215487924822</v>
       </c>
       <c r="I21" t="n">
         <v>0.2</v>
@@ -1289,13 +1289,13 @@
         <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>7.75012393151e-06</v>
+        <v>7.33988432877e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>8e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.241862358164</v>
+        <v>0.229059786411</v>
       </c>
       <c r="I22" t="n">
         <v>0.2</v>
@@ -1327,16 +1327,16 @@
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>7.75012393151e-06</v>
+        <v>7.33988432877e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>8e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00775012393151</v>
+        <v>0.00733988432877</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J23" t="n">
         <v>0.53</v>
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00658029390411</v>
+        <v>0.00623197726027</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J24" t="n">
         <v>0.45</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.227531940329</v>
+        <v>0.215487924822</v>
       </c>
       <c r="I25" t="n">
         <v>0.2</v>
@@ -1441,16 +1441,16 @@
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>7.75012393151e-06</v>
+        <v>1.57111384932e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>8e-06</v>
+        <v>2e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00775012393151</v>
+        <v>0.0157111384932</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="J26" t="n">
         <v>0.53</v>
@@ -1479,16 +1479,16 @@
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>7.75012393151e-06</v>
+        <v>1.57111384932e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>8e-06</v>
+        <v>2e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.241862358164</v>
+        <v>0.490306095616</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J27" t="n">
         <v>16.54</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00658029390411</v>
+        <v>0.0133396458904</v>
       </c>
       <c r="I28" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="J28" t="n">
         <v>0.45</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.227531940329</v>
+        <v>0.461255311233</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J29" t="n">
         <v>15.56</v>
@@ -1593,16 +1593,16 @@
         <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>7.75012393151e-06</v>
+        <v>1.57111384932e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>8e-06</v>
+        <v>2e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.241862358164</v>
+        <v>0.490306095616</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J30" t="n">
         <v>16.54</v>
@@ -1631,16 +1631,16 @@
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>7.75012393151e-06</v>
+        <v>1.57111384932e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>8e-06</v>
+        <v>2e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00775012393151</v>
+        <v>0.0157111384932</v>
       </c>
       <c r="I31" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="J31" t="n">
         <v>0.53</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00658029390411</v>
+        <v>0.0133396458904</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="J32" t="n">
         <v>0.45</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.227531940329</v>
+        <v>0.461255311233</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J33" t="n">
         <v>15.56</v>
@@ -4785,13 +4785,13 @@
         <v>18</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00227663546207</v>
+        <v>0.00215612564367</v>
       </c>
       <c r="G114" t="n">
         <v>0.002</v>
       </c>
       <c r="H114" t="n">
-        <v>0.241862358164</v>
+        <v>0.229059786411</v>
       </c>
       <c r="I114" t="n">
         <v>0.2</v>
@@ -4823,13 +4823,13 @@
         <v>16</v>
       </c>
       <c r="F115" t="n">
-        <v>0.00227531940329</v>
+        <v>0.00215487924822</v>
       </c>
       <c r="G115" t="n">
         <v>0.002</v>
       </c>
       <c r="H115" t="n">
-        <v>0.227531940329</v>
+        <v>0.215487924822</v>
       </c>
       <c r="I115" t="n">
         <v>0.2</v>
@@ -4861,16 +4861,16 @@
         <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>1.31605878082e-06</v>
+        <v>1.24639545205e-06</v>
       </c>
       <c r="G116" t="n">
         <v>1e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>0.00658029390411</v>
+        <v>0.00623197726027</v>
       </c>
       <c r="I116" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J116" t="n">
         <v>0.45</v>
@@ -4905,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.00775012393151</v>
+        <v>0.00733988432877</v>
       </c>
       <c r="I117" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J117" t="n">
         <v>0.53</v>
@@ -4937,13 +4937,13 @@
         <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00227663546207</v>
+        <v>0.00215612564367</v>
       </c>
       <c r="G118" t="n">
         <v>0.002</v>
       </c>
       <c r="H118" t="n">
-        <v>0.241862358164</v>
+        <v>0.229059786411</v>
       </c>
       <c r="I118" t="n">
         <v>0.2</v>
@@ -4975,13 +4975,13 @@
         <v>18</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00227531940329</v>
+        <v>0.00215487924822</v>
       </c>
       <c r="G119" t="n">
         <v>0.002</v>
       </c>
       <c r="H119" t="n">
-        <v>0.227531940329</v>
+        <v>0.215487924822</v>
       </c>
       <c r="I119" t="n">
         <v>0.2</v>
@@ -5013,16 +5013,16 @@
         <v>18</v>
       </c>
       <c r="F120" t="n">
-        <v>1.31605878082e-06</v>
+        <v>1.24639545205e-06</v>
       </c>
       <c r="G120" t="n">
         <v>1e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>0.00658029390411</v>
+        <v>0.00623197726027</v>
       </c>
       <c r="I120" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J120" t="n">
         <v>0.45</v>
@@ -5057,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.00775012393151</v>
+        <v>0.00733988432877</v>
       </c>
       <c r="I121" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J121" t="n">
         <v>0.53</v>
@@ -5089,16 +5089,16 @@
         <v>18</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00227663546207</v>
+        <v>0.00461522104151</v>
       </c>
       <c r="G122" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="H122" t="n">
-        <v>0.241862358164</v>
+        <v>0.490306095616</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J122" t="n">
         <v>16.54</v>
@@ -5127,16 +5127,16 @@
         <v>16</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00227531940329</v>
+        <v>0.00461255311233</v>
       </c>
       <c r="G123" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="H123" t="n">
-        <v>0.227531940329</v>
+        <v>0.461255311233</v>
       </c>
       <c r="I123" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J123" t="n">
         <v>15.56</v>
@@ -5165,16 +5165,16 @@
         <v>16</v>
       </c>
       <c r="F124" t="n">
-        <v>1.31605878082e-06</v>
+        <v>2.66792917808e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>1e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>0.00658029390411</v>
+        <v>0.0133396458904</v>
       </c>
       <c r="I124" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="J124" t="n">
         <v>0.45</v>
@@ -5209,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.00775012393151</v>
+        <v>0.0157111384932</v>
       </c>
       <c r="I125" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="J125" t="n">
         <v>0.53</v>
@@ -5241,16 +5241,16 @@
         <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00227663546207</v>
+        <v>0.00461522104151</v>
       </c>
       <c r="G126" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="H126" t="n">
-        <v>0.241862358164</v>
+        <v>0.490306095616</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J126" t="n">
         <v>16.54</v>
@@ -5279,16 +5279,16 @@
         <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00227531940329</v>
+        <v>0.00461255311233</v>
       </c>
       <c r="G127" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="H127" t="n">
-        <v>0.227531940329</v>
+        <v>0.461255311233</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J127" t="n">
         <v>15.56</v>
@@ -5317,16 +5317,16 @@
         <v>18</v>
       </c>
       <c r="F128" t="n">
-        <v>1.31605878082e-06</v>
+        <v>2.66792917808e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>1e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>0.00658029390411</v>
+        <v>0.0133396458904</v>
       </c>
       <c r="I128" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="J128" t="n">
         <v>0.45</v>
@@ -5361,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.00775012393151</v>
+        <v>0.0157111384932</v>
       </c>
       <c r="I129" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="J129" t="n">
         <v>0.53</v>

--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -833,13 +833,13 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>3.92778462329e-08</v>
+        <v>4.03325280822e-08</v>
       </c>
       <c r="G10" t="n">
         <v>4e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0157111384932</v>
+        <v>0.0161330112329</v>
       </c>
       <c r="I10" t="n">
         <v>0.02</v>
@@ -871,13 +871,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>3.92778462329e-08</v>
+        <v>4.03325280822e-08</v>
       </c>
       <c r="G11" t="n">
         <v>4e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.490306095616</v>
+        <v>0.503471709041</v>
       </c>
       <c r="I11" t="n">
         <v>0.5</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0133396458904</v>
+        <v>0.013697839726</v>
       </c>
       <c r="I12" t="n">
         <v>0.01</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.461255311233</v>
+        <v>0.473640858082</v>
       </c>
       <c r="I13" t="n">
         <v>0.5</v>
@@ -985,13 +985,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>3.92778462329e-08</v>
+        <v>4.03325280822e-08</v>
       </c>
       <c r="G14" t="n">
         <v>4e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.490306095616</v>
+        <v>0.503471709041</v>
       </c>
       <c r="I14" t="n">
         <v>0.5</v>
@@ -1023,13 +1023,13 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>3.92778462329e-08</v>
+        <v>4.03325280822e-08</v>
       </c>
       <c r="G15" t="n">
         <v>4e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0157111384932</v>
+        <v>0.0161330112329</v>
       </c>
       <c r="I15" t="n">
         <v>0.02</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0133396458904</v>
+        <v>0.013697839726</v>
       </c>
       <c r="I16" t="n">
         <v>0.01</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.461255311233</v>
+        <v>0.473640858082</v>
       </c>
       <c r="I17" t="n">
         <v>0.5</v>
@@ -1441,13 +1441,13 @@
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>1.57111384932e-05</v>
+        <v>1.61330112329e-05</v>
       </c>
       <c r="G26" t="n">
         <v>2e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0157111384932</v>
+        <v>0.0161330112329</v>
       </c>
       <c r="I26" t="n">
         <v>0.02</v>
@@ -1479,13 +1479,13 @@
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>1.57111384932e-05</v>
+        <v>1.61330112329e-05</v>
       </c>
       <c r="G27" t="n">
         <v>2e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.490306095616</v>
+        <v>0.503471709041</v>
       </c>
       <c r="I27" t="n">
         <v>0.5</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0133396458904</v>
+        <v>0.013697839726</v>
       </c>
       <c r="I28" t="n">
         <v>0.01</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.461255311233</v>
+        <v>0.473640858082</v>
       </c>
       <c r="I29" t="n">
         <v>0.5</v>
@@ -1593,13 +1593,13 @@
         <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>1.57111384932e-05</v>
+        <v>1.61330112329e-05</v>
       </c>
       <c r="G30" t="n">
         <v>2e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.490306095616</v>
+        <v>0.503471709041</v>
       </c>
       <c r="I30" t="n">
         <v>0.5</v>
@@ -1631,13 +1631,13 @@
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>1.57111384932e-05</v>
+        <v>1.61330112329e-05</v>
       </c>
       <c r="G31" t="n">
         <v>2e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0157111384932</v>
+        <v>0.0161330112329</v>
       </c>
       <c r="I31" t="n">
         <v>0.02</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0133396458904</v>
+        <v>0.013697839726</v>
       </c>
       <c r="I32" t="n">
         <v>0.01</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.461255311233</v>
+        <v>0.473640858082</v>
       </c>
       <c r="I33" t="n">
         <v>0.5</v>
@@ -5089,13 +5089,13 @@
         <v>18</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00461522104151</v>
+        <v>0.00473914814877</v>
       </c>
       <c r="G122" t="n">
         <v>0.005</v>
       </c>
       <c r="H122" t="n">
-        <v>0.490306095616</v>
+        <v>0.503471709041</v>
       </c>
       <c r="I122" t="n">
         <v>0.5</v>
@@ -5127,13 +5127,13 @@
         <v>16</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00461255311233</v>
+        <v>0.00473640858082</v>
       </c>
       <c r="G123" t="n">
         <v>0.005</v>
       </c>
       <c r="H123" t="n">
-        <v>0.461255311233</v>
+        <v>0.473640858082</v>
       </c>
       <c r="I123" t="n">
         <v>0.5</v>
@@ -5165,13 +5165,13 @@
         <v>16</v>
       </c>
       <c r="F124" t="n">
-        <v>2.66792917808e-06</v>
+        <v>2.73956794521e-06</v>
       </c>
       <c r="G124" t="n">
         <v>3e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0133396458904</v>
+        <v>0.013697839726</v>
       </c>
       <c r="I124" t="n">
         <v>0.01</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0157111384932</v>
+        <v>0.0161330112329</v>
       </c>
       <c r="I125" t="n">
         <v>0.02</v>
@@ -5241,13 +5241,13 @@
         <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00461522104151</v>
+        <v>0.00473914814877</v>
       </c>
       <c r="G126" t="n">
         <v>0.005</v>
       </c>
       <c r="H126" t="n">
-        <v>0.490306095616</v>
+        <v>0.503471709041</v>
       </c>
       <c r="I126" t="n">
         <v>0.5</v>
@@ -5279,13 +5279,13 @@
         <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00461255311233</v>
+        <v>0.00473640858082</v>
       </c>
       <c r="G127" t="n">
         <v>0.005</v>
       </c>
       <c r="H127" t="n">
-        <v>0.461255311233</v>
+        <v>0.473640858082</v>
       </c>
       <c r="I127" t="n">
         <v>0.5</v>
@@ -5317,13 +5317,13 @@
         <v>18</v>
       </c>
       <c r="F128" t="n">
-        <v>2.66792917808e-06</v>
+        <v>2.73956794521e-06</v>
       </c>
       <c r="G128" t="n">
         <v>3e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0133396458904</v>
+        <v>0.013697839726</v>
       </c>
       <c r="I128" t="n">
         <v>0.01</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0157111384932</v>
+        <v>0.0161330112329</v>
       </c>
       <c r="I129" t="n">
         <v>0.02</v>

--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -138,10 +138,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -167,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -475,40 +484,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -37,16 +37,16 @@
     <t>Value rounded</t>
   </si>
   <si>
-    <t>Conc (µg/m3)</t>
+    <t>Conc (ug/m3)</t>
   </si>
   <si>
-    <t>Conc rounded (µg/m3)</t>
+    <t>Conc rounded (ug/m3)</t>
   </si>
   <si>
     <t>Emissions (tpy)</t>
   </si>
   <si>
-    <t>URE 1/(µg/m3)</t>
+    <t>URE 1/(ug/m3)</t>
   </si>
   <si>
     <t>RFc (mg/m3)</t>

--- a/fixtures/output/01043110000366247_risk_breakdown.xlsx
+++ b/fixtures/output/01043110000366247_risk_breakdown.xlsx
@@ -61,7 +61,7 @@
     <t>CEOT0001</t>
   </si>
   <si>
-    <t>Ethyl benzene</t>
+    <t>ethyl benzene</t>
   </si>
   <si>
     <t>C</t>
@@ -73,10 +73,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Toluene</t>
+    <t>toluene</t>
   </si>
   <si>
-    <t>Xylenes (mixed)</t>
+    <t>xylenes (mixed)</t>
   </si>
   <si>
     <t>Total</t>
